--- a/t2dm-poltava/t2dm_poltava_databook.xlsx
+++ b/t2dm-poltava/t2dm_poltava_databook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/cascade-analyses/t2dm-poltava/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658F1D39-F16F-DE4A-9ECD-1E753275326B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D23ADF-87F2-2E4C-8273-47452633C5B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="19260" windowHeight="16180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23093,7 +23093,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23357,10 +23357,6 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
-      <c r="G15">
-        <f>G17/(G11*G14)</f>
-        <v>0.9158935464210739</v>
-      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
@@ -23417,10 +23413,6 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
-      <c r="G18">
-        <f>G20/G17</f>
-        <v>0.92421441774491686</v>
-      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">

--- a/t2dm-poltava/t2dm_poltava_databook.xlsx
+++ b/t2dm-poltava/t2dm_poltava_databook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/cascade-analyses/t2dm-poltava/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D23ADF-87F2-2E4C-8273-47452633C5B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34172711-B96B-E842-9D97-FD105A7AB067}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="19260" windowHeight="16180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -573,13 +573,21 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>Nicole:
-Form 12, 2015. Row 5.8, all adults registered</t>
+          <t xml:space="preserve">Nicole:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Form 12, 2015. Row 5.8, all adults registered</t>
         </r>
       </text>
     </comment>
@@ -827,7 +835,224 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{745E0E51-D310-E841-9B19-5C6928DDD176}">
+    <comment ref="E5" authorId="1" shapeId="0" xr:uid="{C351F33C-2660-C645-A54E-B92DE31613C2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Robyn Margaret:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assume we end up identifying 70% of new cases</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="1" shapeId="0" xr:uid="{73E6A267-51A2-A145-BB3A-3D3428170C67}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Robyn Margaret:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assume we end up identifying 70% of new cases</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="1" shapeId="0" xr:uid="{42662667-6D0C-6847-9096-925BEED7C11C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Robyn Margaret:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assume we end up identifying 70% of new cases</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="1" shapeId="0" xr:uid="{5BB1F5C9-1ABB-6B42-90D7-573A8737A262}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Robyn Margaret:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assume we end up identifying 70% of new cases</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="1" shapeId="0" xr:uid="{702DDCC2-B092-EC4B-A005-A76483B19A1A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Robyn Margaret:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assume 8.4% loss from positive screening to diagnosis</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F11" authorId="1" shapeId="0" xr:uid="{1FBF4BD7-163E-5046-92FF-FB02B4A412FD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Robyn Margaret:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assume 8.4% loss from positive screening to diagnosis</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G11" authorId="1" shapeId="0" xr:uid="{E4421F75-07E1-524C-A3FE-66F633E87AB1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Robyn Margaret:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assume 8.4% loss from positive screening to diagnosis</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H11" authorId="1" shapeId="0" xr:uid="{83ABDD9D-733D-8E48-8660-751A06F1B7A5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Robyn Margaret:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assume 8.4% loss from positive screening to diagnosis</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{2D3BB7D8-2823-B74E-A5D5-09EFE825D749}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assuming higher yield, i.e., assuming doctors only screen those who seem high-risk</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{536A1AEB-1B8E-F046-A47F-2662F16F687B}">
       <text>
         <r>
           <rPr>
@@ -860,224 +1085,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Robyn Margaret:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assume we end up identifying 70% of new cases</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F11" authorId="1" shapeId="0" xr:uid="{FF125C15-5409-6140-BEC9-5099338A5D56}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Robyn Margaret:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assume we end up identifying 70% of new cases</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G11" authorId="1" shapeId="0" xr:uid="{3840CBD7-2904-BE40-8F2A-8F8A8FA3CDCC}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Robyn Margaret:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assume we end up identifying 70% of new cases</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H11" authorId="1" shapeId="0" xr:uid="{1FFA2EDA-FB92-0C4F-AD38-0270B894A994}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Robyn Margaret:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assume we end up identifying 70% of new cases</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{9789CA22-CAB0-BD4D-9495-58248E198227}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assuming higher yield, i.e., assuming doctors only screen those who seem high-risk</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E17" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Microsoft Office User:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assume 8.4% loss</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F17" authorId="1" shapeId="0" xr:uid="{526A51AF-6983-BF4D-B957-3CAC9DED3C08}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Microsoft Office User:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assume 8.4% loss</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G17" authorId="1" shapeId="0" xr:uid="{B2920025-7D25-184F-9BD5-E06865FE2823}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Microsoft Office User:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assume 8.4% loss</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H17" authorId="1" shapeId="0" xr:uid="{23FC395A-A994-1744-957C-008CD07F6DC1}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Microsoft Office User:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assume 8.4% loss</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E20" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
+    <comment ref="E20" authorId="1" shapeId="0" xr:uid="{D535852D-8256-7748-997D-F1074BDECE82}">
       <text>
         <r>
           <rPr>
@@ -1100,7 +1108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
+    <comment ref="F20" authorId="1" shapeId="0" xr:uid="{9579DC2D-EC90-0843-B16D-C9FD18DC2BC7}">
       <text>
         <r>
           <rPr>
@@ -1123,7 +1131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G20" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
+    <comment ref="G20" authorId="1" shapeId="0" xr:uid="{62C719E2-B4F7-0747-A52B-E6B246DF72E3}">
       <text>
         <r>
           <rPr>
@@ -1146,22 +1154,30 @@
         </r>
       </text>
     </comment>
-    <comment ref="H20" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
+    <comment ref="H20" authorId="1" shapeId="0" xr:uid="{822818DA-325D-294B-B9FC-06E0EA1C3377}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>Microsoft Office User:
-Assume 7.6% loss</t>
+          <t xml:space="preserve">Microsoft Office User:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assume 7.6% loss</t>
         </r>
       </text>
     </comment>
-    <comment ref="E35" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="E35" authorId="2" shapeId="0" xr:uid="{5E1AC58D-3AAE-4844-B86C-4E6E345C58A9}">
       <text>
         <r>
           <rPr>
@@ -1184,7 +1200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F35" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="F35" authorId="2" shapeId="0" xr:uid="{507F8E88-DFF7-0F47-B249-5AAACA6C3DB9}">
       <text>
         <r>
           <rPr>
@@ -1207,7 +1223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G35" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="G35" authorId="2" shapeId="0" xr:uid="{02AF5F30-CF18-6647-892B-1DF2E6497330}">
       <text>
         <r>
           <rPr>
@@ -1230,7 +1246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H35" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="H35" authorId="2" shapeId="0" xr:uid="{3A29FAEB-8C98-934E-9F25-46CDBFA24B28}">
       <text>
         <r>
           <rPr>
@@ -1354,7 +1370,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1393,6 +1409,13 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1454,11 +1477,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1482,10 +1506,13 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{5716298F-8041-EF4F-8486-5AFA44517D64}"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="38">
     <dxf>
@@ -22596,10 +22623,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD24"/>
+      <selection activeCell="F12" sqref="F12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22610,7 +22637,7 @@
     <col min="4" max="4" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -22634,7 +22661,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -22663,7 +22690,7 @@
         <v>1246510.099278864</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -22687,7 +22714,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -22712,7 +22739,7 @@
         <v>11248</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -22736,7 +22763,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -22761,7 +22788,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -22785,7 +22812,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -22810,7 +22837,14 @@
         <v>66163</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -22834,7 +22868,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -22863,7 +22897,7 @@
         <v>52930</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -22912,6 +22946,11 @@
         <v>47911</v>
       </c>
     </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>14</v>
@@ -22961,6 +23000,11 @@
         <v>40580</v>
       </c>
     </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>15</v>
@@ -23009,6 +23053,11 @@
       <c r="H23" s="2">
         <v>10998</v>
       </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C14">
@@ -23092,8 +23141,8 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23187,18 +23236,21 @@
       <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="8">
-        <f t="array" ref="E5:H5">TREND(E35:H35)</f>
-        <v>3563</v>
-      </c>
-      <c r="F5" s="8">
-        <v>3599</v>
-      </c>
-      <c r="G5" s="8">
-        <v>3635</v>
-      </c>
-      <c r="H5" s="8">
-        <v>3671</v>
+      <c r="E5" s="2">
+        <f>ROUND((E11*E14)/(1-0.2),0)</f>
+        <v>4473</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" ref="F5:H5" si="0">ROUND((F11*F14)/(1-0.2),0)</f>
+        <v>4518</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>4564</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="0"/>
+        <v>4609</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -23287,20 +23339,20 @@
         <v>8</v>
       </c>
       <c r="E11" s="2">
-        <f>ROUND(E5*(1-0.35)/E14,0)</f>
-        <v>28949</v>
+        <f>ROUND(E17/(1-0.084)/E14,0)</f>
+        <v>44732</v>
       </c>
       <c r="F11" s="2">
-        <f>ROUND(F5*(1-0.35)/F14,0)</f>
-        <v>29242</v>
+        <f>ROUND(F17/(1-0.084)/F14,0)</f>
+        <v>45184</v>
       </c>
       <c r="G11" s="2">
-        <f>ROUND(G5*(1-0.35)/G14,0)</f>
-        <v>29534</v>
+        <f>ROUND(G17/(1-0.084)/G14,0)</f>
+        <v>45636</v>
       </c>
       <c r="H11" s="2">
-        <f>ROUND(H5*(1-0.35)/H14,0)</f>
-        <v>29827</v>
+        <f>ROUND(H17/(1-0.084)/H14,0)</f>
+        <v>46088</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -23394,21 +23446,18 @@
       <c r="D17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="2">
-        <f>ROUND(E11*E14*(1-0.084),0)</f>
-        <v>2121</v>
-      </c>
-      <c r="F17" s="2">
-        <f>ROUND(F11*F14*(1-0.084),0)</f>
-        <v>2143</v>
-      </c>
-      <c r="G17" s="2">
-        <f>ROUND(G11*G14*(1-0.084),0)</f>
-        <v>2164</v>
-      </c>
-      <c r="H17" s="2">
-        <f>ROUND(H11*H14*(1-0.084),0)</f>
-        <v>2186</v>
+      <c r="E17" s="8">
+        <f t="array" ref="E17:H17">TREND(E35:H35)</f>
+        <v>3277.9599999999996</v>
+      </c>
+      <c r="F17" s="8">
+        <v>3311.08</v>
+      </c>
+      <c r="G17" s="8">
+        <v>3344.2</v>
+      </c>
+      <c r="H17" s="8">
+        <v>3377.32</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -23452,19 +23501,19 @@
       </c>
       <c r="E20" s="2">
         <f>ROUND(E17*(1-0.076),0)</f>
-        <v>1960</v>
+        <v>3029</v>
       </c>
       <c r="F20" s="2">
         <f>ROUND(F17*(1-0.076),0)</f>
-        <v>1980</v>
+        <v>3059</v>
       </c>
       <c r="G20" s="2">
         <f>ROUND(G17*(1-0.076),0)</f>
-        <v>2000</v>
+        <v>3090</v>
       </c>
       <c r="H20" s="2">
         <f>ROUND(H17*(1-0.076),0)</f>
-        <v>2020</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -23595,7 +23644,7 @@
         <v>24</v>
       </c>
       <c r="C29" s="4">
-        <v>2.5000000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
@@ -23656,16 +23705,20 @@
         <v>29</v>
       </c>
       <c r="E35" s="2">
-        <v>3769</v>
+        <f>3769*0.92</f>
+        <v>3467.48</v>
       </c>
       <c r="F35" s="2">
-        <v>3494</v>
+        <f>3494*0.92</f>
+        <v>3214.48</v>
       </c>
       <c r="G35" s="2">
-        <v>3227</v>
+        <f>3227*0.92</f>
+        <v>2968.84</v>
       </c>
       <c r="H35" s="2">
-        <v>3978</v>
+        <f>3978*0.92</f>
+        <v>3659.76</v>
       </c>
     </row>
   </sheetData>

--- a/t2dm-poltava/t2dm_poltava_databook.xlsx
+++ b/t2dm-poltava/t2dm_poltava_databook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/cascade-analyses/t2dm-poltava/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34172711-B96B-E842-9D97-FD105A7AB067}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3308CAAD-78B7-C645-8468-617983A923CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="19260" windowHeight="16180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -771,13 +771,21 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>Robyn Stuart:
-Assume the same proportion as in the pilot study</t>
+          <t xml:space="preserve">Robyn Stuart:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assume the same proportion as in the pilot study</t>
         </r>
       </text>
     </comment>
@@ -22626,7 +22634,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:H12"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23141,8 +23149,8 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/t2dm-poltava/t2dm_poltava_databook.xlsx
+++ b/t2dm-poltava/t2dm_poltava_databook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/cascade-analyses/t2dm-poltava/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3308CAAD-78B7-C645-8468-617983A923CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB32A927-EFDB-1F46-8482-147646DF2761}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="19260" windowHeight="16180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="19260" windowHeight="16180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -241,7 +241,6 @@
   <authors>
     <author>Robyn Stuart</author>
     <author>Nicole</author>
-    <author>Microsoft Office User</author>
   </authors>
   <commentList>
     <comment ref="F2" authorId="0" shapeId="0" xr:uid="{82539E8B-FD9D-9B42-82CA-10CFCB213874}">
@@ -300,7 +299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="F5" authorId="1" shapeId="0" xr:uid="{62E63564-C39F-FC47-B241-DC70B053725C}">
       <text>
         <r>
           <rPr>
@@ -323,7 +322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="G5" authorId="1" shapeId="0" xr:uid="{099C9560-1830-DE45-BCB7-E01C1F1EC1F8}">
       <text>
         <r>
           <rPr>
@@ -346,7 +345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="H5" authorId="1" shapeId="0" xr:uid="{9919A152-B3E3-CF46-910F-D1C561707C7F}">
       <text>
         <r>
           <rPr>
@@ -392,7 +391,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="F8" authorId="1" shapeId="0" xr:uid="{F82CE107-62D1-1F40-A536-9BE0B8123D8F}">
       <text>
         <r>
           <rPr>
@@ -415,7 +414,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="G8" authorId="1" shapeId="0" xr:uid="{AB907944-31CB-B246-B903-5EFB1D44FC1D}">
       <text>
         <r>
           <rPr>
@@ -438,7 +437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="H8" authorId="1" shapeId="0" xr:uid="{6DE12758-ED9A-5743-9E9F-C742A1C83794}">
       <text>
         <r>
           <rPr>
@@ -461,91 +460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Robyn Stuart:
-Assume 80%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Robyn Stuart:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assume 80%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Robyn Stuart:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assume 80%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Robyn Stuart:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assume 80%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E17" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
+    <comment ref="E11" authorId="1" shapeId="0" xr:uid="{94F122E3-1B2F-7544-A897-18AD8B884B3F}">
       <text>
         <r>
           <rPr>
@@ -564,11 +479,11 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Form 12, 2014. Row 5.8, all adults registered</t>
+          <t>Assumed 27.5% of all diabetics undiagnosed, and 85% of these uncomplicated (early vascular damage only)</t>
         </r>
       </text>
     </comment>
-    <comment ref="F17" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
+    <comment ref="F11" authorId="1" shapeId="0" xr:uid="{CEB2B8CC-1A1D-714D-AA8C-EBE1DE1E898F}">
       <text>
         <r>
           <rPr>
@@ -587,11 +502,11 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Form 12, 2015. Row 5.8, all adults registered</t>
+          <t>Assumed 27.5% of all diabetics undiagnosed, and 85% of these uncomplicated (early vascular damage only)</t>
         </r>
       </text>
     </comment>
-    <comment ref="G17" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
+    <comment ref="G11" authorId="1" shapeId="0" xr:uid="{8FC6EBC6-7B33-5E4D-B618-3F537D73AB7A}">
       <text>
         <r>
           <rPr>
@@ -610,41 +525,11 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Form 12, 2016. Row 5.8, all adults registered</t>
+          <t>Assumed 27.5% of all diabetics undiagnosed, and 85% of these uncomplicated (early vascular damage only)</t>
         </r>
       </text>
     </comment>
-    <comment ref="H17" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Nicole:
-Form 12, 2017. Row 5.8, all adults registered</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E20" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Robyn Stuart:
-Assume the same proportion as in the pilot study</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F20" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
+    <comment ref="H11" authorId="1" shapeId="0" xr:uid="{66B743D8-333B-744E-AD43-E053862D32CC}">
       <text>
         <r>
           <rPr>
@@ -653,7 +538,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Robyn Stuart:
+          <t xml:space="preserve">Nicole:
 </t>
         </r>
         <r>
@@ -663,11 +548,11 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Assume the same proportion as in the pilot study</t>
+          <t>Assumed 27.5% of all diabetics undiagnosed, and 85% of these uncomplicated (early vascular damage only)</t>
         </r>
       </text>
     </comment>
-    <comment ref="G20" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
+    <comment ref="E14" authorId="1" shapeId="0" xr:uid="{600A359E-2AD3-7542-830C-035FA15AAFA3}">
       <text>
         <r>
           <rPr>
@@ -676,7 +561,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Robyn Stuart:
+          <t xml:space="preserve">Nicole:
 </t>
         </r>
         <r>
@@ -686,11 +571,11 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Assume the same proportion as in the pilot study</t>
+          <t>Assumed 27.5% of all diabetics undiagnosed, and 15% of these complicated (with important vascular damage already, pre-diagnosis)</t>
         </r>
       </text>
     </comment>
-    <comment ref="H20" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
+    <comment ref="F14" authorId="1" shapeId="0" xr:uid="{970C0B52-B854-FC48-9225-E54C67EA0232}">
       <text>
         <r>
           <rPr>
@@ -699,7 +584,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Robyn Stuart:
+          <t xml:space="preserve">Nicole:
 </t>
         </r>
         <r>
@@ -709,41 +594,11 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Assume the same proportion as in the pilot study</t>
+          <t>Assumed 27.5% of all diabetics undiagnosed, and 15% of these complicated (with important vascular damage already, pre-diagnosis)</t>
         </r>
       </text>
     </comment>
-    <comment ref="E23" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Robyn Stuart:
-Assume the same proportion as in the pilot study</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F23" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-000016000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Robyn Stuart:
-Assume the same proportion as in the pilot study</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G23" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
+    <comment ref="G14" authorId="1" shapeId="0" xr:uid="{ECDCAE9C-9979-5444-A39D-CD25B5168238}">
       <text>
         <r>
           <rPr>
@@ -752,7 +607,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Robyn Stuart:
+          <t xml:space="preserve">Nicole:
 </t>
         </r>
         <r>
@@ -762,11 +617,11 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Assume the same proportion as in the pilot study</t>
+          <t>Assumed 27.5% of all diabetics undiagnosed, and 15% of these complicated (with important vascular damage already, pre-diagnosis)</t>
         </r>
       </text>
     </comment>
-    <comment ref="H23" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-000018000000}">
+    <comment ref="H14" authorId="1" shapeId="0" xr:uid="{189B46F0-1EB9-B84C-80B9-253C025E2E24}">
       <text>
         <r>
           <rPr>
@@ -775,7 +630,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Robyn Stuart:
+          <t xml:space="preserve">Nicole:
 </t>
         </r>
         <r>
@@ -785,7 +640,559 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Assume the same proportion as in the pilot study</t>
+          <t>Assumed 27.5% of all diabetics undiagnosed, and 15% of these complicated (with important vascular damage already, pre-diagnosis)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="1" shapeId="0" xr:uid="{8B55C367-A526-4B43-B389-D0B5B84A6408}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nicole:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assumed 27.5% of all diabetics undiagnosed, and 85% of these uncomplicated (early vascular damage only)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F17" authorId="1" shapeId="0" xr:uid="{CF9329D7-2997-1F43-ABDB-3FF02E49FBD3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nicole:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assumed 27.5% of all diabetics undiagnosed, and 85% of these uncomplicated (early vascular damage only)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G17" authorId="1" shapeId="0" xr:uid="{6B91BB40-7AE4-1E45-B5FB-336A9A150F3D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nicole:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assumed 27.5% of all diabetics undiagnosed, and 85% of these uncomplicated (early vascular damage only)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H17" authorId="1" shapeId="0" xr:uid="{D383C41A-0BF5-A94B-9A63-98C390F7E7D9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nicole:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assumed 27.5% of all diabetics undiagnosed, and 85% of these uncomplicated (early vascular damage only)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E20" authorId="1" shapeId="0" xr:uid="{F756ED67-B3B0-624F-8E35-BD7222054954}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nicole:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assumed 27.5% of all diabetics undiagnosed, and 15% of these complicated (with important vascular damage already, pre-diagnosis)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F20" authorId="1" shapeId="0" xr:uid="{A495FD73-7196-3742-9C2C-3C65450D5108}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nicole:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assumed 27.5% of all diabetics undiagnosed, and 15% of these complicated (with important vascular damage already, pre-diagnosis)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G20" authorId="1" shapeId="0" xr:uid="{F3341034-0437-9F4B-8A86-ED2FBD66DFE8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nicole:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assumed 27.5% of all diabetics undiagnosed, and 15% of these complicated (with important vascular damage already, pre-diagnosis)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H20" authorId="1" shapeId="0" xr:uid="{8DE9E9E3-5569-AF46-8FE9-206080B34BB3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nicole:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assumed 27.5% of all diabetics undiagnosed, and 15% of these complicated (with important vascular damage already, pre-diagnosis)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E23" authorId="1" shapeId="0" xr:uid="{41603E6D-9EA0-6C4E-B687-A59F2A2A86A9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nicole:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assumed 27.5% of all diabetics undiagnosed, and 85% of these uncomplicated (early vascular damage only)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F23" authorId="1" shapeId="0" xr:uid="{61312523-DAD5-7A4F-A4F8-31C7F62E0C07}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nicole:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assumed 27.5% of all diabetics undiagnosed, and 85% of these uncomplicated (early vascular damage only)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G23" authorId="1" shapeId="0" xr:uid="{C04674D7-2234-8247-9EAC-01D8948C84BA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nicole:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assumed 27.5% of all diabetics undiagnosed, and 85% of these uncomplicated (early vascular damage only)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H23" authorId="1" shapeId="0" xr:uid="{142AC2FD-029A-B44E-BA57-89667A105F00}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nicole:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assumed 27.5% of all diabetics undiagnosed, and 85% of these uncomplicated (early vascular damage only)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E26" authorId="1" shapeId="0" xr:uid="{2E74E989-8E87-7849-A14C-02E24E79761E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nicole:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assumed 27.5% of all diabetics undiagnosed, and 15% of these complicated (with important vascular damage already, pre-diagnosis)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F26" authorId="1" shapeId="0" xr:uid="{97F76503-1E4E-D745-BAD3-7D1E5B132CA3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nicole:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assumed 27.5% of all diabetics undiagnosed, and 15% of these complicated (with important vascular damage already, pre-diagnosis)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G26" authorId="1" shapeId="0" xr:uid="{52A6D7E9-46C9-9443-877E-85257A1E508C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nicole:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assumed 27.5% of all diabetics undiagnosed, and 15% of these complicated (with important vascular damage already, pre-diagnosis)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H26" authorId="1" shapeId="0" xr:uid="{9B4CD34E-BD46-6541-9FE7-FA4272176AA0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nicole:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assumed 27.5% of all diabetics undiagnosed, and 15% of these complicated (with important vascular damage already, pre-diagnosis)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E29" authorId="1" shapeId="0" xr:uid="{E56D7219-4A0F-8A4E-9213-6B6FBB3928EC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nicole:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assumed 27.5% of all diabetics undiagnosed, and 85% of these uncomplicated (early vascular damage only)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F29" authorId="1" shapeId="0" xr:uid="{4149172B-85DF-DC47-8066-F025C18ECF97}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nicole:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assumed 27.5% of all diabetics undiagnosed, and 85% of these uncomplicated (early vascular damage only)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G29" authorId="1" shapeId="0" xr:uid="{055FE723-53B8-7D4F-838F-8E22054FBD6C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nicole:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assumed 27.5% of all diabetics undiagnosed, and 85% of these uncomplicated (early vascular damage only)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H29" authorId="1" shapeId="0" xr:uid="{8CC80F8D-BAE4-BF42-8A28-0E4A02F66226}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nicole:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assumed 27.5% of all diabetics undiagnosed, and 85% of these uncomplicated (early vascular damage only)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E32" authorId="1" shapeId="0" xr:uid="{E0F67383-3524-DB48-8DAD-77440C8B2668}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nicole:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assumed 27.5% of all diabetics undiagnosed, and 15% of these complicated (with important vascular damage already, pre-diagnosis)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F32" authorId="1" shapeId="0" xr:uid="{C461BF8C-1B2E-2544-ACCC-A1FE4AF24AA1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nicole:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assumed 27.5% of all diabetics undiagnosed, and 15% of these complicated (with important vascular damage already, pre-diagnosis)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G32" authorId="1" shapeId="0" xr:uid="{5B4B71C1-6248-BE4D-86B9-FBE35CAFCD7B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nicole:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assumed 27.5% of all diabetics undiagnosed, and 15% of these complicated (with important vascular damage already, pre-diagnosis)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H32" authorId="1" shapeId="0" xr:uid="{14D6C03E-3C4A-5745-A32C-DD3E4E27B2D7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nicole:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assumed 27.5% of all diabetics undiagnosed, and 15% of these complicated (with important vascular damage already, pre-diagnosis)</t>
         </r>
       </text>
     </comment>
@@ -1282,7 +1689,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="47">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -1373,12 +1780,63 @@
   <si>
     <t>#ignore: raw data on estimated number of new diabetes cases annually</t>
   </si>
+  <si>
+    <t>Screened &amp; uncomplicated</t>
+  </si>
+  <si>
+    <t>Screened &amp; vascular damage</t>
+  </si>
+  <si>
+    <t>Diagnosed &amp; uncomplicated</t>
+  </si>
+  <si>
+    <t>Diagnosed &amp; vascular damage</t>
+  </si>
+  <si>
+    <t>Treatment failure &amp; uncomplicated</t>
+  </si>
+  <si>
+    <t>Treatment failure &amp; vascular damage</t>
+  </si>
+  <si>
+    <t>Successful treatment &amp; uncomplicated</t>
+  </si>
+  <si>
+    <t>Successful treatment &amp; vascular damage</t>
+  </si>
+  <si>
+    <t>Baseline cascade calcs</t>
+  </si>
+  <si>
+    <t>Unaware</t>
+  </si>
+  <si>
+    <t>Characteristics</t>
+  </si>
+  <si>
+    <t>Compartments</t>
+  </si>
+  <si>
+    <t>Screened</t>
+  </si>
+  <si>
+    <t>Diagnosed</t>
+  </si>
+  <si>
+    <t>Treatment failure</t>
+  </si>
+  <si>
+    <t>Successful treatment</t>
+  </si>
+  <si>
+    <t>All compartments</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1417,13 +1875,6 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1485,12 +1936,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1514,15 +1964,56 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{5716298F-8041-EF4F-8486-5AFA44517D64}"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="44">
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="lightUp">
@@ -22631,21 +23122,21 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -22669,7 +23160,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -22698,7 +23189,7 @@
         <v>1246510.099278864</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -22722,7 +23213,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -22735,19 +23226,23 @@
         <v>8</v>
       </c>
       <c r="E5" s="2">
+        <f>'#ignore - misc calcs'!C19</f>
         <v>10830</v>
       </c>
       <c r="F5" s="2">
+        <f>'#ignore - misc calcs'!D19</f>
         <v>11009</v>
       </c>
       <c r="G5" s="2">
+        <f>'#ignore - misc calcs'!E19</f>
         <v>11117</v>
       </c>
       <c r="H5" s="2">
+        <f>'#ignore - misc calcs'!F19</f>
         <v>11248</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -22771,7 +23266,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -22784,21 +23279,25 @@
         <v>8</v>
       </c>
       <c r="E8" s="2">
+        <f>'#ignore - misc calcs'!C20</f>
         <v>1911</v>
       </c>
       <c r="F8" s="2">
+        <f>'#ignore - misc calcs'!D20</f>
         <v>1943</v>
       </c>
       <c r="G8" s="2">
+        <f>'#ignore - misc calcs'!E20</f>
         <v>1962</v>
       </c>
       <c r="H8" s="2">
+        <f>'#ignore - misc calcs'!F20</f>
         <v>1985</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -22820,8 +23319,8 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="str">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
@@ -22833,28 +23332,28 @@
         <v>8</v>
       </c>
       <c r="E11" s="2">
-        <v>63706</v>
+        <f>'#ignore - misc calcs'!C21</f>
+        <v>3866</v>
       </c>
       <c r="F11" s="2">
-        <v>64758</v>
+        <f>'#ignore - misc calcs'!D21</f>
+        <v>3930</v>
       </c>
       <c r="G11" s="2">
-        <v>65394</v>
+        <f>'#ignore - misc calcs'!E21</f>
+        <v>3969</v>
       </c>
       <c r="H11" s="2">
-        <v>66163</v>
+        <f>'#ignore - misc calcs'!F21</f>
+        <v>4015</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
@@ -22876,8 +23375,8 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="str">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
@@ -22889,25 +23388,28 @@
         <v>8</v>
       </c>
       <c r="E14" s="2">
-        <f>ROUND(E11*0.8,0)</f>
-        <v>50965</v>
+        <f>'#ignore - misc calcs'!C22</f>
+        <v>967</v>
       </c>
       <c r="F14" s="2">
-        <f>ROUND(F11*0.8,0)</f>
-        <v>51806</v>
+        <f>'#ignore - misc calcs'!D22</f>
+        <v>982</v>
       </c>
       <c r="G14" s="2">
-        <f>ROUND(G11*0.8,0)</f>
-        <v>52315</v>
+        <f>'#ignore - misc calcs'!E22</f>
+        <v>992</v>
       </c>
       <c r="H14" s="2">
-        <f>ROUND(H11*0.8,0)</f>
-        <v>52930</v>
+        <f>'#ignore - misc calcs'!F22</f>
+        <v>1004</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>13</v>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>5</v>
@@ -22930,7 +23432,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="str">
+      <c r="A17" s="11" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
@@ -22942,26 +23444,28 @@
         <v>8</v>
       </c>
       <c r="E17" s="2">
-        <v>46132</v>
+        <f>'#ignore - misc calcs'!C23</f>
+        <v>5294</v>
       </c>
       <c r="F17" s="2">
-        <v>46894</v>
+        <f>'#ignore - misc calcs'!D23</f>
+        <v>5381</v>
       </c>
       <c r="G17" s="2">
-        <v>47354</v>
+        <f>'#ignore - misc calcs'!E23</f>
+        <v>5434</v>
       </c>
       <c r="H17" s="2">
-        <v>47911</v>
+        <f>'#ignore - misc calcs'!F23</f>
+        <v>5498</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="A18" s="12"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>14</v>
+      <c r="A19" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>5</v>
@@ -22984,7 +23488,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="str">
+      <c r="A20" s="11" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
@@ -22996,26 +23500,28 @@
         <v>8</v>
       </c>
       <c r="E20" s="2">
-        <v>39074</v>
+        <f>'#ignore - misc calcs'!C24</f>
+        <v>1765</v>
       </c>
       <c r="F20" s="2">
-        <v>39719</v>
+        <f>'#ignore - misc calcs'!D24</f>
+        <v>1794</v>
       </c>
       <c r="G20" s="2">
-        <v>40109</v>
+        <f>'#ignore - misc calcs'!E24</f>
+        <v>1811</v>
       </c>
       <c r="H20" s="2">
-        <v>40580</v>
+        <f>'#ignore - misc calcs'!F24</f>
+        <v>1833</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="A21" s="12"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>15</v>
+      <c r="A22" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>5</v>
@@ -23038,7 +23544,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="str">
+      <c r="A23" s="11" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
@@ -23050,90 +23556,281 @@
         <v>8</v>
       </c>
       <c r="E23" s="2">
-        <v>10589</v>
+        <f>'#ignore - misc calcs'!C25</f>
+        <v>19940</v>
       </c>
       <c r="F23" s="2">
-        <v>10764</v>
+        <f>'#ignore - misc calcs'!D25</f>
+        <v>20269</v>
       </c>
       <c r="G23" s="2">
-        <v>10870</v>
+        <f>'#ignore - misc calcs'!E25</f>
+        <v>20467</v>
       </c>
       <c r="H23" s="2">
-        <v>10998</v>
+        <f>'#ignore - misc calcs'!F25</f>
+        <v>20707</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="A24" s="12"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1">
+        <v>2014</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="2">
+        <f>'#ignore - misc calcs'!C26</f>
+        <v>8546</v>
+      </c>
+      <c r="F26" s="2">
+        <f>'#ignore - misc calcs'!D26</f>
+        <v>8687</v>
+      </c>
+      <c r="G26" s="2">
+        <f>'#ignore - misc calcs'!E26</f>
+        <v>8772</v>
+      </c>
+      <c r="H26" s="2">
+        <f>'#ignore - misc calcs'!F26</f>
+        <v>8875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="12"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1">
+        <v>2014</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H28" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="2">
+        <f>'#ignore - misc calcs'!C27</f>
+        <v>7412</v>
+      </c>
+      <c r="F29" s="2">
+        <f>'#ignore - misc calcs'!D27</f>
+        <v>7535</v>
+      </c>
+      <c r="G29" s="2">
+        <f>'#ignore - misc calcs'!E27</f>
+        <v>7609</v>
+      </c>
+      <c r="H29" s="2">
+        <f>'#ignore - misc calcs'!F27</f>
+        <v>7699</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="12"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1">
+        <v>2014</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="2">
+        <f>'#ignore - misc calcs'!C28</f>
+        <v>3177</v>
+      </c>
+      <c r="F32" s="2">
+        <f>'#ignore - misc calcs'!D28</f>
+        <v>3229</v>
+      </c>
+      <c r="G32" s="2">
+        <f>'#ignore - misc calcs'!E28</f>
+        <v>3261</v>
+      </c>
+      <c r="H32" s="2">
+        <f>'#ignore - misc calcs'!F28</f>
+        <v>3299</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" dxfId="43" priority="19">
+      <formula>COUNTIF(E5:H5,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="20">
+      <formula>AND(COUNTIF(E5:H5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="expression" dxfId="41" priority="21">
+      <formula>COUNTIF(E8:H8,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="22">
+      <formula>AND(COUNTIF(E8:H8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="expression" dxfId="39" priority="17">
+      <formula>COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="18">
+      <formula>AND(COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="expression" dxfId="37" priority="13">
+      <formula>COUNTIF(E11:H11,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="14">
+      <formula>AND(COUNTIF(E11:H11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="37" priority="9">
+    <cfRule type="expression" dxfId="35" priority="15">
       <formula>COUNTIF(E14:H14,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="10">
+    <cfRule type="expression" dxfId="34" priority="16">
       <formula>AND(COUNTIF(E14:H14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="35" priority="11">
+    <cfRule type="expression" dxfId="33" priority="9">
       <formula>COUNTIF(E17:H17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="12">
+    <cfRule type="expression" dxfId="32" priority="10">
       <formula>AND(COUNTIF(E17:H17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="33" priority="13">
+    <cfRule type="expression" dxfId="31" priority="11">
       <formula>COUNTIF(E20:H20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="14">
+    <cfRule type="expression" dxfId="30" priority="12">
       <formula>AND(COUNTIF(E20:H20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="31" priority="3">
-      <formula>COUNTIF(E5:H5,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="4">
-      <formula>AND(COUNTIF(E5:H5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="29" priority="15">
+    <cfRule type="expression" dxfId="29" priority="5">
       <formula>COUNTIF(E23:H23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="16">
+    <cfRule type="expression" dxfId="28" priority="6">
       <formula>AND(COUNTIF(E23:H23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="27" priority="5">
-      <formula>COUNTIF(E8:H8,"&lt;&gt;" &amp; "")&gt;0</formula>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="27" priority="1">
+      <formula>COUNTIF(E29:H29,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="6">
-      <formula>AND(COUNTIF(E8:H8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C8)))</formula>
+    <cfRule type="expression" dxfId="26" priority="2">
+      <formula>AND(COUNTIF(E29:H29,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C29)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
+  <conditionalFormatting sqref="C26">
     <cfRule type="expression" dxfId="25" priority="7">
-      <formula>COUNTIF(E11:H11,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(E26:H26,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="24" priority="8">
-      <formula>AND(COUNTIF(E11:H11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
+      <formula>AND(COUNTIF(E26:H26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="23" priority="1">
-      <formula>COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0</formula>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="expression" dxfId="23" priority="3">
+      <formula>COUNTIF(E32:H32,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="2">
-      <formula>AND(COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
+    <cfRule type="expression" dxfId="22" priority="4">
+      <formula>AND(COUNTIF(E32:H32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C32)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B8 B23 B20 B17 B14 B11 B5 B2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B8 B5 B2 B14 B11 B20 B17 B26 B23 B32 B29" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Number"</formula1>
     </dataValidation>
   </dataValidations>
@@ -23149,8 +23846,8 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23836,14 +24533,477 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17185A31-6918-2A43-B052-F762CF8C747C}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H19" sqref="H19:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="31.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2014</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2015</v>
+      </c>
+      <c r="E4" s="10">
+        <v>2016</v>
+      </c>
+      <c r="F4" s="10">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>63706</v>
+      </c>
+      <c r="D5">
+        <v>64758</v>
+      </c>
+      <c r="E5">
+        <v>65394</v>
+      </c>
+      <c r="F5">
+        <v>66163</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>50965</v>
+      </c>
+      <c r="D6">
+        <v>51806</v>
+      </c>
+      <c r="E6">
+        <v>52315</v>
+      </c>
+      <c r="F6">
+        <v>52930</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>46132</v>
+      </c>
+      <c r="D7">
+        <v>46894</v>
+      </c>
+      <c r="E7">
+        <v>47354</v>
+      </c>
+      <c r="F7">
+        <v>47911</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>39074</v>
+      </c>
+      <c r="D8">
+        <v>39719</v>
+      </c>
+      <c r="E8">
+        <v>40109</v>
+      </c>
+      <c r="F8">
+        <v>40580</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>10589</v>
+      </c>
+      <c r="D9">
+        <v>10764</v>
+      </c>
+      <c r="E9">
+        <v>10870</v>
+      </c>
+      <c r="F9">
+        <v>10998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="10">
+        <v>2014</v>
+      </c>
+      <c r="D11" s="10">
+        <v>2015</v>
+      </c>
+      <c r="E11" s="10">
+        <v>2016</v>
+      </c>
+      <c r="F11" s="10">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12">
+        <f>C5-C6</f>
+        <v>12741</v>
+      </c>
+      <c r="D12">
+        <f>D5-D6</f>
+        <v>12952</v>
+      </c>
+      <c r="E12">
+        <f>E5-E6</f>
+        <v>13079</v>
+      </c>
+      <c r="F12">
+        <f>F5-F6</f>
+        <v>13233</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13">
+        <f>C6-C7</f>
+        <v>4833</v>
+      </c>
+      <c r="D13">
+        <f>D6-D7</f>
+        <v>4912</v>
+      </c>
+      <c r="E13">
+        <f>E6-E7</f>
+        <v>4961</v>
+      </c>
+      <c r="F13">
+        <f>F6-F7</f>
+        <v>5019</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14">
+        <f>C7-C8</f>
+        <v>7058</v>
+      </c>
+      <c r="D14">
+        <f>D7-D8</f>
+        <v>7175</v>
+      </c>
+      <c r="E14">
+        <f>E7-E8</f>
+        <v>7245</v>
+      </c>
+      <c r="F14">
+        <f>F7-F8</f>
+        <v>7331</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15">
+        <f>C8-C9</f>
+        <v>28485</v>
+      </c>
+      <c r="D15">
+        <f>D8-D9</f>
+        <v>28955</v>
+      </c>
+      <c r="E15">
+        <f>E8-E9</f>
+        <v>29239</v>
+      </c>
+      <c r="F15">
+        <f>F8-F9</f>
+        <v>29582</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16">
+        <f>C9-C10</f>
+        <v>10589</v>
+      </c>
+      <c r="D16">
+        <f>D9-D10</f>
+        <v>10764</v>
+      </c>
+      <c r="E16">
+        <f>E9-E10</f>
+        <v>10870</v>
+      </c>
+      <c r="F16">
+        <f>F9-F10</f>
+        <v>10998</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="10">
+        <v>2014</v>
+      </c>
+      <c r="D18" s="10">
+        <v>2015</v>
+      </c>
+      <c r="E18" s="10">
+        <v>2016</v>
+      </c>
+      <c r="F18" s="10">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <f>ROUND(C12*85%,0)</f>
+        <v>10830</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="D19:F19" si="0">ROUND(D12*85%,0)</f>
+        <v>11009</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>11117</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>11248</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <f>ROUND(C12*15%,0)</f>
+        <v>1911</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20:F20" si="1">ROUND(D12*15%,0)</f>
+        <v>1943</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>1962</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <f>ROUND(C13*80%,0)</f>
+        <v>3866</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:F21" si="2">ROUND(D13*80%,0)</f>
+        <v>3930</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>3969</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>4015</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <f>ROUND(C13*20%,0)</f>
+        <v>967</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22:F22" si="3">ROUND(D13*20%,0)</f>
+        <v>982</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>992</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <f>ROUND(C14*75%,0)</f>
+        <v>5294</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:F23" si="4">ROUND(D14*75%,0)</f>
+        <v>5381</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="4"/>
+        <v>5434</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="4"/>
+        <v>5498</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <f>ROUND(C14*25%,0)</f>
+        <v>1765</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24:F24" si="5">ROUND(D14*25%,0)</f>
+        <v>1794</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="5"/>
+        <v>1811</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="5"/>
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <f>ROUND(C15*70%,0)</f>
+        <v>19940</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ref="D25:F25" si="6">ROUND(D15*70%,0)</f>
+        <v>20269</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="6"/>
+        <v>20467</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="6"/>
+        <v>20707</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26">
+        <f>ROUND(C15*30%,0)</f>
+        <v>8546</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:F26" si="7">ROUND(D15*30%,0)</f>
+        <v>8687</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="7"/>
+        <v>8772</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="7"/>
+        <v>8875</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27">
+        <f>ROUND(C16*70%,0)</f>
+        <v>7412</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27:F27" si="8">ROUND(D16*70%,0)</f>
+        <v>7535</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="8"/>
+        <v>7609</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="8"/>
+        <v>7699</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28">
+        <f>ROUND(C16*30%,0)</f>
+        <v>3177</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28:F28" si="9">ROUND(D16*30%,0)</f>
+        <v>3229</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="9"/>
+        <v>3261</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="9"/>
+        <v>3299</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/t2dm-poltava/t2dm_poltava_databook.xlsx
+++ b/t2dm-poltava/t2dm_poltava_databook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/cascade-analyses/t2dm-poltava/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB32A927-EFDB-1F46-8482-147646DF2761}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277EC250-887E-4940-B6F3-AC8C21124BDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="19260" windowHeight="16180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="19260" windowHeight="16180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -23124,8 +23124,8 @@
   </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23846,8 +23846,8 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23994,7 +23994,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>8</v>
@@ -24349,7 +24349,7 @@
         <v>24</v>
       </c>
       <c r="C29" s="4">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
@@ -24395,7 +24395,7 @@
         <v>24</v>
       </c>
       <c r="C32" s="4">
-        <v>1.4999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>8</v>
@@ -24515,7 +24515,7 @@
       <formula>AND(COUNTIF(E35:H35,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B5 B20 B17 B11 B2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Number"</formula1>
     </dataValidation>
@@ -24536,7 +24536,7 @@
   <dimension ref="B3:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:H29"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/t2dm-poltava/t2dm_poltava_databook.xlsx
+++ b/t2dm-poltava/t2dm_poltava_databook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/cascade-analyses/t2dm-poltava/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277EC250-887E-4940-B6F3-AC8C21124BDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2378D88C-1363-4E4C-89A8-061BA712601F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="19260" windowHeight="16180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -232,7 +232,7 @@
     <definedName name="table_ScenarioOffset">[1]Lists!$D$3:$E$5</definedName>
     <definedName name="TB_incidence_rate">'[1]Infection control'!$E$25</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -24676,19 +24676,19 @@
         <v>39</v>
       </c>
       <c r="C12">
-        <f>C5-C6</f>
+        <f t="shared" ref="C12:F16" si="0">C5-C6</f>
         <v>12741</v>
       </c>
       <c r="D12">
-        <f>D5-D6</f>
+        <f t="shared" si="0"/>
         <v>12952</v>
       </c>
       <c r="E12">
-        <f>E5-E6</f>
+        <f t="shared" si="0"/>
         <v>13079</v>
       </c>
       <c r="F12">
-        <f>F5-F6</f>
+        <f t="shared" si="0"/>
         <v>13233</v>
       </c>
     </row>
@@ -24697,19 +24697,19 @@
         <v>42</v>
       </c>
       <c r="C13">
-        <f>C6-C7</f>
+        <f t="shared" si="0"/>
         <v>4833</v>
       </c>
       <c r="D13">
-        <f>D6-D7</f>
+        <f t="shared" si="0"/>
         <v>4912</v>
       </c>
       <c r="E13">
-        <f>E6-E7</f>
+        <f t="shared" si="0"/>
         <v>4961</v>
       </c>
       <c r="F13">
-        <f>F6-F7</f>
+        <f t="shared" si="0"/>
         <v>5019</v>
       </c>
     </row>
@@ -24718,19 +24718,19 @@
         <v>43</v>
       </c>
       <c r="C14">
-        <f>C7-C8</f>
+        <f t="shared" si="0"/>
         <v>7058</v>
       </c>
       <c r="D14">
-        <f>D7-D8</f>
+        <f t="shared" si="0"/>
         <v>7175</v>
       </c>
       <c r="E14">
-        <f>E7-E8</f>
+        <f t="shared" si="0"/>
         <v>7245</v>
       </c>
       <c r="F14">
-        <f>F7-F8</f>
+        <f t="shared" si="0"/>
         <v>7331</v>
       </c>
     </row>
@@ -24739,19 +24739,19 @@
         <v>44</v>
       </c>
       <c r="C15">
-        <f>C8-C9</f>
+        <f t="shared" si="0"/>
         <v>28485</v>
       </c>
       <c r="D15">
-        <f>D8-D9</f>
+        <f t="shared" si="0"/>
         <v>28955</v>
       </c>
       <c r="E15">
-        <f>E8-E9</f>
+        <f t="shared" si="0"/>
         <v>29239</v>
       </c>
       <c r="F15">
-        <f>F8-F9</f>
+        <f t="shared" si="0"/>
         <v>29582</v>
       </c>
     </row>
@@ -24760,19 +24760,19 @@
         <v>45</v>
       </c>
       <c r="C16">
-        <f>C9-C10</f>
+        <f t="shared" si="0"/>
         <v>10589</v>
       </c>
       <c r="D16">
-        <f>D9-D10</f>
+        <f t="shared" si="0"/>
         <v>10764</v>
       </c>
       <c r="E16">
-        <f>E9-E10</f>
+        <f t="shared" si="0"/>
         <v>10870</v>
       </c>
       <c r="F16">
-        <f>F9-F10</f>
+        <f t="shared" si="0"/>
         <v>10998</v>
       </c>
     </row>
@@ -24802,15 +24802,15 @@
         <v>10830</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19:F19" si="0">ROUND(D12*85%,0)</f>
+        <f t="shared" ref="D19:F19" si="1">ROUND(D12*85%,0)</f>
         <v>11009</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11117</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11248</v>
       </c>
     </row>
@@ -24823,15 +24823,15 @@
         <v>1911</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20:F20" si="1">ROUND(D12*15%,0)</f>
+        <f t="shared" ref="D20:F20" si="2">ROUND(D12*15%,0)</f>
         <v>1943</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1962</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1985</v>
       </c>
     </row>
@@ -24844,15 +24844,15 @@
         <v>3866</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:F21" si="2">ROUND(D13*80%,0)</f>
+        <f t="shared" ref="D21:F21" si="3">ROUND(D13*80%,0)</f>
         <v>3930</v>
       </c>
       <c r="E21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3969</v>
       </c>
       <c r="F21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4015</v>
       </c>
     </row>
@@ -24865,15 +24865,15 @@
         <v>967</v>
       </c>
       <c r="D22">
-        <f t="shared" ref="D22:F22" si="3">ROUND(D13*20%,0)</f>
+        <f t="shared" ref="D22:F22" si="4">ROUND(D13*20%,0)</f>
         <v>982</v>
       </c>
       <c r="E22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>992</v>
       </c>
       <c r="F22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1004</v>
       </c>
     </row>
@@ -24886,15 +24886,15 @@
         <v>5294</v>
       </c>
       <c r="D23">
-        <f t="shared" ref="D23:F23" si="4">ROUND(D14*75%,0)</f>
+        <f t="shared" ref="D23:F23" si="5">ROUND(D14*75%,0)</f>
         <v>5381</v>
       </c>
       <c r="E23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5434</v>
       </c>
       <c r="F23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5498</v>
       </c>
     </row>
@@ -24907,15 +24907,15 @@
         <v>1765</v>
       </c>
       <c r="D24">
-        <f t="shared" ref="D24:F24" si="5">ROUND(D14*25%,0)</f>
+        <f t="shared" ref="D24:F24" si="6">ROUND(D14*25%,0)</f>
         <v>1794</v>
       </c>
       <c r="E24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1811</v>
       </c>
       <c r="F24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1833</v>
       </c>
     </row>
@@ -24928,15 +24928,15 @@
         <v>19940</v>
       </c>
       <c r="D25">
-        <f t="shared" ref="D25:F25" si="6">ROUND(D15*70%,0)</f>
+        <f t="shared" ref="D25:F25" si="7">ROUND(D15*70%,0)</f>
         <v>20269</v>
       </c>
       <c r="E25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20467</v>
       </c>
       <c r="F25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20707</v>
       </c>
     </row>
@@ -24949,15 +24949,15 @@
         <v>8546</v>
       </c>
       <c r="D26">
-        <f t="shared" ref="D26:F26" si="7">ROUND(D15*30%,0)</f>
+        <f t="shared" ref="D26:F26" si="8">ROUND(D15*30%,0)</f>
         <v>8687</v>
       </c>
       <c r="E26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8772</v>
       </c>
       <c r="F26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8875</v>
       </c>
     </row>
@@ -24970,15 +24970,15 @@
         <v>7412</v>
       </c>
       <c r="D27">
-        <f t="shared" ref="D27:F27" si="8">ROUND(D16*70%,0)</f>
+        <f t="shared" ref="D27:F27" si="9">ROUND(D16*70%,0)</f>
         <v>7535</v>
       </c>
       <c r="E27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7609</v>
       </c>
       <c r="F27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7699</v>
       </c>
     </row>
@@ -24991,15 +24991,15 @@
         <v>3177</v>
       </c>
       <c r="D28">
-        <f t="shared" ref="D28:F28" si="9">ROUND(D16*30%,0)</f>
+        <f t="shared" ref="D28:F28" si="10">ROUND(D16*30%,0)</f>
         <v>3229</v>
       </c>
       <c r="E28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3261</v>
       </c>
       <c r="F28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3299</v>
       </c>
     </row>
